--- a/data/trans_camb/P5_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 21,0</t>
+          <t>-24,51; 28,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 18,55</t>
+          <t>-18,92; 22,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 16,26</t>
+          <t>-15,78; 15,25</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 45,05</t>
+          <t>-39,28; 85,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 46,67</t>
+          <t>-29,26; 47,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 35,65</t>
+          <t>-25,14; 32,52</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>5,32</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 25,69</t>
+          <t>-11,85; 42,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 12,99</t>
+          <t>-21,87; 14,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 15,22</t>
+          <t>-13,56; 22,84</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-7,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 68,09</t>
+          <t>-18,65; 111,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 43,63</t>
+          <t>-46,73; 48,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 40,43</t>
+          <t>-26,03; 60,69</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,54</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 10,17</t>
+          <t>-17,16; 17,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 11,52</t>
+          <t>-12,67; 15,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 8,18</t>
+          <t>-9,57; 12,52</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 31,4</t>
+          <t>-44,76; 93,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 28,81</t>
+          <t>-25,25; 43,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 21,43</t>
+          <t>-21,63; 39,62</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 9,89</t>
+          <t>-14,71; 15,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 10,15</t>
+          <t>-12,26; 14,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 7,21</t>
+          <t>-10,13; 10,53</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-0,75%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 23,14</t>
+          <t>-27,71; 43,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 28,16</t>
+          <t>-27,07; 45,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 18,39</t>
+          <t>-21,56; 28,84</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 17,68</t>
+          <t>-14,34; 21,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 13,03</t>
+          <t>-19,57; 19,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 10,67</t>
+          <t>-11,67; 16,22</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 44,7</t>
+          <t>-25,43; 51,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 34,13</t>
+          <t>-36,72; 54,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 24,9</t>
+          <t>-21,54; 39,7</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,86</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 18,2</t>
+          <t>-24,11; 21,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 14,05</t>
+          <t>-18,73; 19,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 9,91</t>
+          <t>-15,28; 14,12</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>-1,99%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 50,46</t>
+          <t>-38,87; 53,35</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 42,2</t>
+          <t>-42,47; 79,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 26,37</t>
+          <t>-30,68; 41,96</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 7,08</t>
+          <t>-6,49; 12,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,5</t>
+          <t>-6,71; 7,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,63</t>
+          <t>-4,76; 6,96</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 15,48</t>
+          <t>-12,42; 28,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 13,41</t>
+          <t>-14,82; 19,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 10,49</t>
+          <t>-9,69; 16,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.562703163120194</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.719990399774651</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3179384910692251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-24,51; 28,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,92; 22,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,78; 15,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.74355501946478</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.70385971038007</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.39582355655978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,83%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.25470087550882</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.67024921376141</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.51364367660718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-39,28; 85,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-29,26; 47,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-25,14; 32,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.03115851568325564</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.02974057732307962</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.005824524685130683</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>13,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4227300856222722</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2711740433320863</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2466259992410234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 42,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,87; 14,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,56; 22,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.7681557025741528</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.512507153256674</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3371849020159518</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>23,02%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,88%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,99%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>13.324048240965</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.01996721268742</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.579365442926953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,65; 111,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-46,73; 48,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,03; 60,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.96701109984228</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.23102078934571</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.98959073797422</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>40.90798318308905</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.60566896585138</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.0391468705934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 17,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,67; 15,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,57; 12,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.2271509743751959</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1059669551184225</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1152006553926259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1817206526930485</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4843673468793019</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.231044378243652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-44,76; 93,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-25,25; 43,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,63; 39,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.066660953118809</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.473982586459769</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.6199346261976018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.334298215166236</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.14182124550697</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.4628219987245941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-14,71; 15,41</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 14,6</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; 10,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-19.09598714454183</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.67376907895042</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.86556594273987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,87%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,75%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.90615683643163</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.83746514211682</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>11.84549380873917</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-27,71; 43,04</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-27,07; 45,68</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-21,56; 28,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.07752318096629761</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.05073221283830619</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.01235690446788129</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5072926309515903</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2492514986309903</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2529780577260997</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; 21,01</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-19,57; 19,0</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-11,67; 16,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.7696468383228107</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4563165006709734</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.377731175545834</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,72%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,37%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.782245953222617</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6731190549938315</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.9345295504589846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-25,43; 51,63</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-36,72; 54,76</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-21,54; 39,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-16.03920822129216</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.77551778243213</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.83223338896279</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>13.70875960195021</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.3705980962764</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.32846387897133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-24,11; 21,85</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-18,73; 19,65</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-15,28; 14,12</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.05906532753317291</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.01678515227394238</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.02156826215038177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-3,75%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,99%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3014717871019324</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2767390532466891</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2305231149018149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-38,87; 53,35</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-42,47; 79,52</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-30,68; 41,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.3966122900112568</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4437469691464171</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.275562152057946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>1.865964222729222</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1.496388083381739</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.717695720374662</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 12,19</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 7,7</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 6,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-15.15758529496114</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-18.37359334399106</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-11.32407721231895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>20.48183181291575</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>20.24276455832882</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>16.53273360575172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 28,51</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 19,97</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 16,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.03750466102577848</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.03190785378496402</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.03539187020447074</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2642806571616451</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.3421218753419849</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.212488012122708</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.4972008626023816</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.5794577387528972</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.4145114663940466</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-5.234790606116135</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.3451536156952151</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-2.10340319990493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-27.42356064650962</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-18.72960851468199</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-16.15499398255271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>18.93788410956484</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>19.79470923049243</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>12.83701524198171</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.1012156610790581</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.009598142888027817</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.04872443279982629</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4347807699240759</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4238668530130454</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3292373572917242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.4447209535564711</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.7940384138797583</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.3570227917975419</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.260319537603566</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.4853721265735023</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.8576533373125084</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-8.222726822777242</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.202729582738372</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.227783513933504</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>10.5388126397629</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>7.888680877892404</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>6.535300230646186</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.02656681136436275</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.0112889439869974</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.01903227176210515</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1585024567418303</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1352450434747257</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1105709390055884</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2435244930635575</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.2004390323424162</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1550264998576042</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
